--- a/Datos/Database by set/Set with text box/Xlsx sets/Magic Player Rewards 2008 (P08).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Magic Player Rewards 2008 (P08).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,203 +444,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Corrupt</t>
+          <t>('Corrupt', ['{5}{B}', 'Sorcery', 'Corrupt deals damage to any target equal to the number of Swamps you control. You gain life equal to the damage dealt this way.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{5}{B}</t>
+          <t>('Damnation', ['{2}{B}{B}', 'Sorcery', 'Destroy all creatures. They can’t be regenerated.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Harmonize', ['{2}{G}{G}', 'Sorcery', 'Draw three cards.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Corrupt deals damage to any target equal to the number of Swamps you control. You gain life equal to the damage dealt this way.</t>
+          <t>('Incinerate', ['{1}{R}', 'Instant', 'Incinerate deals 3 damage to any target. A creature dealt damage this way can’t be regenerated this turn.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Damnation</t>
+          <t>('Mana Tithe', ['{W}', 'Instant', 'Counter target spell unless its controller pays {1}.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{2}{B}{B}</t>
+          <t>('Ponder', ['{U}', 'Sorcery', 'Look at the top three cards of your library, then put them back in any order. You may shuffle your library.', 'Draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Destroy all creatures. They can’t be regenerated.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Harmonize</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>{2}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Draw three cards.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Incinerate</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Incinerate deals 3 damage to any target. A creature dealt damage this way can’t be regenerated this turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Mana Tithe</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Counter target spell unless its controller pays {1}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Ponder</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Look at the top three cards of your library, then put them back in any order. You may shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Tidings</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>{3}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Draw four cards.</t>
+          <t>('Tidings', ['{3}{U}{U}', 'Sorcery', 'Draw four cards.'])</t>
         </is>
       </c>
     </row>
